--- a/input2.xlsx
+++ b/input2.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luciano\Documents\GitHub\PIBIC2021\notebook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luciano\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51E3382-860D-4A51-A0A8-5D4A34300A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{83A091EE-6748-48D6-A072-5BCEA5D00314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16545" yWindow="1890" windowWidth="20790" windowHeight="11295" activeTab="1" xr2:uid="{CF7882E5-7B46-4257-BE9F-380EA4186D27}"/>
+    <workbookView xWindow="1950" yWindow="2670" windowWidth="30435" windowHeight="13140" xr2:uid="{CF7882E5-7B46-4257-BE9F-380EA4186D27}"/>
   </bookViews>
   <sheets>
-    <sheet name="geradores" sheetId="1" r:id="rId1"/>
-    <sheet name="demanda" sheetId="2" r:id="rId2"/>
+    <sheet name="demanda" sheetId="2" r:id="rId1"/>
+    <sheet name="UTE" sheetId="1" r:id="rId2"/>
+    <sheet name="UEL" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Unid.</t>
   </si>
@@ -59,6 +60,18 @@
   </si>
   <si>
     <t>t</t>
+  </si>
+  <si>
+    <t>Nt</t>
+  </si>
+  <si>
+    <t>Pt</t>
+  </si>
+  <si>
+    <t>Wmax</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
 </sst>
 </file>
@@ -431,11 +444,230 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93BC7439-4EC1-4DF1-AD03-8EBEBA03AD77}">
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3620</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>4040</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>3790</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>4680</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>4540</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>3690</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>4750</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>5560</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>5620</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>5810</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>5990</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>6040</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>5790</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>5680</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>5540</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>5690</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>5750</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB962A99-F04E-4EFF-891D-3FDC0D1EBB82}">
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,125 +1014,135 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93BC7439-4EC1-4DF1-AD03-8EBEBA03AD77}">
-  <dimension ref="A1:B26"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83DDEAC3-ED6A-4549-8780-02F77CBF9A95}">
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>10</v>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>5560</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="C2">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>325</v>
+      </c>
+      <c r="E2">
+        <v>0.8</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>5620</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <v>375</v>
+      </c>
+      <c r="E3">
+        <v>0.6</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>5800</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>216</v>
+      </c>
+      <c r="E4">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>5810</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>255</v>
+      </c>
+      <c r="E5">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>5990</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>6040</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>5790</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>5680</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>5540</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>5690</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
+        <v>14</v>
+      </c>
+      <c r="C6">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>5750</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="1"/>
+      <c r="D6">
+        <v>292.5</v>
+      </c>
+      <c r="E6">
+        <v>0.75</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>